--- a/data/МІЖНАРОДНИХ ЕКОНОМІЧНИХ ВІДНОСИН_МЕВ-денне 44 ВІДОМІСТЬ ДОРУЧЕНЬ - 2020.xlsx
+++ b/data/МІЖНАРОДНИХ ЕКОНОМІЧНИХ ВІДНОСИН_МЕВ-денне 44 ВІДОМІСТЬ ДОРУЧЕНЬ - 2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="11640"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="12600" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$I$59</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -234,7 +234,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,6 +322,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -359,7 +366,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -428,6 +435,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -702,7 +712,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -715,8 +725,8 @@
   </sheetPr>
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A46" zoomScale="78" zoomScaleNormal="100" zoomScaleSheetLayoutView="78" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="78" zoomScaleNormal="100" zoomScaleSheetLayoutView="78" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1259,7 +1269,7 @@
     </row>
     <row r="28" spans="1:9" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="25" t="s">
         <v>36</v>
       </c>
       <c r="C28" s="15" t="s">
@@ -1286,7 +1296,7 @@
     </row>
     <row r="29" spans="1:9" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="25" t="s">
         <v>36</v>
       </c>
       <c r="C29" s="15" t="s">
@@ -1311,7 +1321,7 @@
     </row>
     <row r="30" spans="1:9" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="25" t="s">
         <v>36</v>
       </c>
       <c r="C30" s="15" t="s">
@@ -1336,7 +1346,7 @@
     </row>
     <row r="31" spans="1:9" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="25" t="s">
         <v>36</v>
       </c>
       <c r="C31" s="15" t="s">
